--- a/artifacts/InPreSS/assets/results/Defects4J/Lang.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Lang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Downloads/FinalD4JResults/All-297-16-4/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB10E2-EE9D-1E4E-8A0F-01C25024E97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFD0839-0D5D-0D4B-A4CF-EEFC98C3638F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="14540" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="14540" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="113">
   <si>
     <t>Bug ID</t>
   </si>
@@ -62,30 +62,6 @@
     <t>%New InPreSS Reduction</t>
   </si>
   <si>
-    <t>NumberFormatException</t>
-  </si>
-  <si>
-    <t>AssertionFailedError</t>
-  </si>
-  <si>
-    <t>StringIndexOutOfBoundsException</t>
-  </si>
-  <si>
-    <t>ArrayIndexOutOfBoundsException</t>
-  </si>
-  <si>
-    <t>SerializationException</t>
-  </si>
-  <si>
-    <t>ComparisonFailure</t>
-  </si>
-  <si>
-    <t>NullPointerException</t>
-  </si>
-  <si>
-    <t>ArrayStoreException</t>
-  </si>
-  <si>
     <t>%Old Reduction</t>
   </si>
   <si>
@@ -357,9 +333,6 @@
   </si>
   <si>
     <t>#New Chg</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Old Match Avg.</t>
@@ -405,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -416,12 +389,6 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -453,11 +420,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -785,10 +751,9 @@
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="17.83203125" customWidth="1"/>
-    <col min="14" max="14" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,10 +764,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -817,10 +782,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -828,17 +793,14 @@
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>108</v>
+      <c r="N1" t="s">
+        <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -852,7 +814,7 @@
         <v>98.771498771498699</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>8</v>
@@ -870,7 +832,7 @@
         <v>96.774193548387103</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -878,17 +840,14 @@
       <c r="M2" s="1">
         <v>80</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>9</v>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -902,7 +861,7 @@
         <v>94.680851063829707</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -920,7 +879,7 @@
         <v>93.495934959349597</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
@@ -928,17 +887,14 @@
       <c r="M3" s="1">
         <v>75</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>10</v>
+      <c r="N3" t="s">
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -952,7 +908,7 @@
         <v>82.352941176470495</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
@@ -970,7 +926,7 @@
         <v>78.125</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -978,17 +934,14 @@
       <c r="M4" s="1">
         <v>42.857142857142797</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>10</v>
+      <c r="N4" t="s">
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -1002,7 +955,7 @@
         <v>93.979933110367895</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -1020,7 +973,7 @@
         <v>93.870082342177497</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L5" s="1">
         <v>10</v>
@@ -1028,17 +981,14 @@
       <c r="M5" s="1">
         <v>85.074626865671604</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>11</v>
+      <c r="N5" t="s">
+        <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -1052,7 +1002,7 @@
         <v>84.768211920529794</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>12</v>
@@ -1070,7 +1020,7 @@
         <v>93.650793650793602</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1">
         <v>3</v>
@@ -1078,17 +1028,14 @@
       <c r="M6" s="1">
         <v>25</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>10</v>
+      <c r="N6" t="s">
+        <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -1102,7 +1049,7 @@
         <v>99.941916085827501</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1120,7 +1067,7 @@
         <v>99.941912116449103</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
@@ -1128,17 +1075,14 @@
       <c r="M7" s="1">
         <v>88.235294117647001</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>10</v>
+      <c r="N7" t="s">
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -1152,7 +1096,7 @@
         <v>94.679891794409301</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
@@ -1170,7 +1114,7 @@
         <v>94.652406417112303</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1">
         <v>9</v>
@@ -1178,17 +1122,14 @@
       <c r="M8" s="1">
         <v>87.142857142857096</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>10</v>
+      <c r="N8" t="s">
+        <v>36</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1202,7 +1143,7 @@
         <v>93.979933110367895</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
@@ -1220,7 +1161,7 @@
         <v>93.870082342177497</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L9" s="1">
         <v>10</v>
@@ -1228,17 +1169,14 @@
       <c r="M9" s="1">
         <v>85.074626865671604</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>10</v>
+      <c r="N9" t="s">
+        <v>38</v>
       </c>
       <c r="O9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1252,7 +1190,7 @@
         <v>71.428571428571402</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -1270,7 +1208,7 @@
         <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -1278,17 +1216,14 @@
       <c r="M10" s="1">
         <v>83.3333333333333</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>10</v>
+      <c r="N10" t="s">
+        <v>40</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1302,7 +1237,7 @@
         <v>84.768211920529794</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1">
         <v>12</v>
@@ -1320,7 +1255,7 @@
         <v>93.650793650793602</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L11" s="1">
         <v>3</v>
@@ -1328,17 +1263,14 @@
       <c r="M11" s="1">
         <v>25</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>12</v>
+      <c r="N11" t="s">
+        <v>42</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -1352,7 +1284,7 @@
         <v>99.347826086956502</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
@@ -1370,7 +1302,7 @@
         <v>82.608695652173907</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1378,17 +1310,14 @@
       <c r="M12" s="1">
         <v>87.5</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>13</v>
+      <c r="N12" t="s">
+        <v>43</v>
       </c>
       <c r="O12" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -1402,7 +1331,7 @@
         <v>94.262295081967196</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1420,7 +1349,7 @@
         <v>96.923076923076906</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1428,17 +1357,14 @@
       <c r="M13" s="1">
         <v>50</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>10</v>
+      <c r="N13" t="s">
+        <v>45</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1452,7 +1378,7 @@
         <v>90.476190476190396</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1">
         <v>5</v>
@@ -1470,7 +1396,7 @@
         <v>98.936170212765902</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L14" s="1">
         <v>4</v>
@@ -1478,17 +1404,14 @@
       <c r="M14" s="1">
         <v>55.5555555555555</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>10</v>
+      <c r="N14" t="s">
+        <v>47</v>
       </c>
       <c r="O14" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1502,7 +1425,7 @@
         <v>99.493487698986897</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1520,7 +1443,7 @@
         <v>96.194503171247305</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
@@ -1528,17 +1451,14 @@
       <c r="M15" s="1">
         <v>94.4444444444444</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>9</v>
+      <c r="N15" t="s">
+        <v>49</v>
       </c>
       <c r="O15" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -1552,7 +1472,7 @@
         <v>99.921691464369601</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1570,7 +1490,7 @@
         <v>99.921706791935804</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
@@ -1578,17 +1498,14 @@
       <c r="M16" s="1">
         <v>50</v>
       </c>
-      <c r="N16" s="2" t="s">
-        <v>14</v>
+      <c r="N16" t="s">
+        <v>51</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -1602,7 +1519,7 @@
         <v>99.251653324051503</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1">
         <v>18</v>
@@ -1620,7 +1537,7 @@
         <v>99.356669820245898</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="L17" s="1">
         <v>12</v>
@@ -1628,17 +1545,14 @@
       <c r="M17" s="1">
         <v>64.705882352941103</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>14</v>
+      <c r="N17" t="s">
+        <v>52</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -1652,7 +1566,7 @@
         <v>89.520426287744201</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1">
         <v>9</v>
@@ -1670,7 +1584,7 @@
         <v>97.654584221748394</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L18" s="1">
         <v>8</v>
@@ -1678,17 +1592,14 @@
       <c r="M18" s="1">
         <v>27.272727272727199</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>11</v>
+      <c r="N18" t="s">
+        <v>54</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
-      </c>
-      <c r="P18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -1702,7 +1613,7 @@
         <v>89.520426287744201</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1">
         <v>9</v>
@@ -1720,7 +1631,7 @@
         <v>97.654584221748394</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L19" s="1">
         <v>8</v>
@@ -1728,17 +1639,14 @@
       <c r="M19" s="1">
         <v>27.272727272727199</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>15</v>
+      <c r="N19" t="s">
+        <v>56</v>
       </c>
       <c r="O19" t="s">
-        <v>64</v>
-      </c>
-      <c r="P19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -1752,7 +1660,7 @@
         <v>96.296296296296205</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>
@@ -1770,7 +1678,7 @@
         <v>95.774647887323894</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L20" s="1">
         <v>2</v>
@@ -1778,17 +1686,14 @@
       <c r="M20" s="1">
         <v>33.3333333333333</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>10</v>
+      <c r="N20" t="s">
+        <v>58</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -1802,7 +1707,7 @@
         <v>93.035479632063002</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
@@ -1820,7 +1725,7 @@
         <v>98.367952522255194</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L21" s="1">
         <v>4</v>
@@ -1828,17 +1733,14 @@
       <c r="M21" s="1">
         <v>63.636363636363598</v>
       </c>
-      <c r="N21" s="2" t="s">
-        <v>10</v>
+      <c r="N21" t="s">
+        <v>39</v>
       </c>
       <c r="O21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -1852,7 +1754,7 @@
         <v>99.315068493150605</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1">
         <v>17</v>
@@ -1870,7 +1772,7 @@
         <v>99.181818181818102</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L22" s="1">
         <v>2</v>
@@ -1878,17 +1780,14 @@
       <c r="M22" s="1">
         <v>88.8888888888888</v>
       </c>
-      <c r="N22" s="2" t="s">
-        <v>10</v>
+      <c r="N22" t="s">
+        <v>60</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
-      </c>
-      <c r="P22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -1902,7 +1801,7 @@
         <v>99.939357186173396</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
@@ -1920,7 +1819,7 @@
         <v>99.939338792841895</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L23" s="1">
         <v>2</v>
@@ -1928,17 +1827,14 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>10</v>
+      <c r="N23" t="s">
+        <v>61</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -1952,7 +1848,7 @@
         <v>93.953488372093005</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -1970,7 +1866,7 @@
         <v>93.958171959721099</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
@@ -1978,17 +1874,14 @@
       <c r="M24" s="1">
         <v>96.153846153846104</v>
       </c>
-      <c r="N24" s="2" t="s">
-        <v>10</v>
+      <c r="N24" t="s">
+        <v>63</v>
       </c>
       <c r="O24" t="s">
-        <v>71</v>
-      </c>
-      <c r="P24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -2002,7 +1895,7 @@
         <v>98.688524590163894</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1">
         <v>4</v>
@@ -2020,7 +1913,7 @@
         <v>98.684210526315695</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L25" s="1">
         <v>4</v>
@@ -2028,17 +1921,14 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="2" t="s">
-        <v>14</v>
+      <c r="N25" t="s">
+        <v>65</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>28</v>
       </c>
@@ -2052,7 +1942,7 @@
         <v>95.953757225433506</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
@@ -2070,7 +1960,7 @@
         <v>98.360655737704903</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -2078,17 +1968,14 @@
       <c r="M26" s="1">
         <v>50</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>14</v>
+      <c r="N26" t="s">
+        <v>67</v>
       </c>
       <c r="O26" t="s">
-        <v>75</v>
-      </c>
-      <c r="P26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>30</v>
       </c>
@@ -2102,7 +1989,7 @@
         <v>84.745762711864401</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1">
         <v>7</v>
@@ -2120,7 +2007,7 @@
         <v>93.023255813953398</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L27" s="1">
         <v>2</v>
@@ -2128,17 +2015,14 @@
       <c r="M27" s="1">
         <v>33.3333333333333</v>
       </c>
-      <c r="N27" s="2" t="s">
-        <v>10</v>
+      <c r="N27" t="s">
+        <v>69</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
-      </c>
-      <c r="P27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>31</v>
       </c>
@@ -2152,7 +2036,7 @@
         <v>89.102564102564102</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F28" s="1">
         <v>6</v>
@@ -2170,7 +2054,7 @@
         <v>96.341463414634106</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L28" s="1">
         <v>2</v>
@@ -2178,17 +2062,14 @@
       <c r="M28" s="1">
         <v>33.3333333333333</v>
       </c>
-      <c r="N28" s="2" t="s">
-        <v>10</v>
+      <c r="N28" t="s">
+        <v>60</v>
       </c>
       <c r="O28" t="s">
-        <v>68</v>
-      </c>
-      <c r="P28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>32</v>
       </c>
@@ -2202,7 +2083,7 @@
         <v>99.873496331393596</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1">
         <v>34</v>
@@ -2220,7 +2101,7 @@
         <v>86.478873239436595</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L29" s="1">
         <v>24</v>
@@ -2228,17 +2109,14 @@
       <c r="M29" s="1">
         <v>50</v>
       </c>
-      <c r="N29" s="2" t="s">
-        <v>10</v>
+      <c r="N29" t="s">
+        <v>26</v>
       </c>
       <c r="O29" t="s">
-        <v>34</v>
-      </c>
-      <c r="P29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>34</v>
       </c>
@@ -2252,7 +2130,7 @@
         <v>96.664235264815204</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F30" s="1">
         <v>234</v>
@@ -2270,7 +2148,7 @@
         <v>99.061354006346306</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L30" s="1">
         <v>6</v>
@@ -2278,17 +2156,14 @@
       <c r="M30" s="1">
         <v>98.7854251012145</v>
       </c>
-      <c r="N30" s="2" t="s">
-        <v>10</v>
+      <c r="N30" t="s">
+        <v>71</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
-      </c>
-      <c r="P30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>36</v>
       </c>
@@ -2302,7 +2177,7 @@
         <v>97.039473684210506</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F31" s="1">
         <v>4</v>
@@ -2320,7 +2195,7 @@
         <v>96.323529411764696</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
@@ -2328,17 +2203,14 @@
       <c r="M31" s="1">
         <v>80</v>
       </c>
-      <c r="N31" s="2" t="s">
-        <v>9</v>
+      <c r="N31" t="s">
+        <v>73</v>
       </c>
       <c r="O31" t="s">
-        <v>81</v>
-      </c>
-      <c r="P31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>37</v>
       </c>
@@ -2352,7 +2224,7 @@
         <v>90.909090909090907</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F32" s="1">
         <v>4</v>
@@ -2370,7 +2242,7 @@
         <v>91.891891891891902</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="L32" s="1">
         <v>3</v>
@@ -2378,17 +2250,14 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="2" t="s">
-        <v>16</v>
+      <c r="N32" t="s">
+        <v>75</v>
       </c>
       <c r="O32" t="s">
-        <v>83</v>
-      </c>
-      <c r="P32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>38</v>
       </c>
@@ -2402,7 +2271,7 @@
         <v>99.626865671641795</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -2420,7 +2289,7 @@
         <v>99.625935162094706</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L33" s="1">
         <v>1</v>
@@ -2428,17 +2297,14 @@
       <c r="M33" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N33" s="2" t="s">
-        <v>14</v>
+      <c r="N33" t="s">
+        <v>30</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
-      </c>
-      <c r="P33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>40</v>
       </c>
@@ -2452,7 +2318,7 @@
         <v>89.071038251366105</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1">
         <v>19</v>
@@ -2470,7 +2336,7 @@
         <v>88.3333333333333</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L34" s="1">
         <v>3</v>
@@ -2478,17 +2344,14 @@
       <c r="M34" s="1">
         <v>57.142857142857103</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>10</v>
+      <c r="N34" t="s">
+        <v>76</v>
       </c>
       <c r="O34" t="s">
-        <v>84</v>
-      </c>
-      <c r="P34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>41</v>
       </c>
@@ -2502,7 +2365,7 @@
         <v>97.830018083182594</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F35" s="1">
         <v>9</v>
@@ -2520,7 +2383,7 @@
         <v>95.890410958904098</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L35" s="1">
         <v>2</v>
@@ -2528,17 +2391,14 @@
       <c r="M35" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N35" s="2" t="s">
-        <v>14</v>
+      <c r="N35" t="s">
+        <v>77</v>
       </c>
       <c r="O35" t="s">
-        <v>85</v>
-      </c>
-      <c r="P35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42</v>
       </c>
@@ -2552,7 +2412,7 @@
         <v>99.976875048176893</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
@@ -2570,7 +2430,7 @@
         <v>99.976949673453703</v>
       </c>
       <c r="K36" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L36" s="1">
         <v>2</v>
@@ -2578,17 +2438,14 @@
       <c r="M36" s="1">
         <v>33.3333333333333</v>
       </c>
-      <c r="N36" s="2" t="s">
-        <v>14</v>
+      <c r="N36" t="s">
+        <v>78</v>
       </c>
       <c r="O36" t="s">
-        <v>86</v>
-      </c>
-      <c r="P36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44</v>
       </c>
@@ -2602,7 +2459,7 @@
         <v>77.7777777777777</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
@@ -2620,7 +2477,7 @@
         <v>19.230769230769202</v>
       </c>
       <c r="K37" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
@@ -2628,17 +2485,14 @@
       <c r="M37" s="1">
         <v>95.238095238095198</v>
       </c>
-      <c r="N37" s="2" t="s">
-        <v>11</v>
+      <c r="N37" t="s">
+        <v>80</v>
       </c>
       <c r="O37" t="s">
-        <v>88</v>
-      </c>
-      <c r="P37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45</v>
       </c>
@@ -2652,7 +2506,7 @@
         <v>98.842592592592595</v>
       </c>
       <c r="E38" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
@@ -2670,7 +2524,7 @@
         <v>98.625429553264595</v>
       </c>
       <c r="K38" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -2678,17 +2532,14 @@
       <c r="M38" s="1">
         <v>75</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>11</v>
+      <c r="N38" t="s">
+        <v>82</v>
       </c>
       <c r="O38" t="s">
-        <v>90</v>
-      </c>
-      <c r="P38" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>46</v>
       </c>
@@ -2702,7 +2553,7 @@
         <v>97.244094488188907</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F39" s="1">
         <v>4</v>
@@ -2720,7 +2571,7 @@
         <v>97.2332015810276</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L39" s="1">
         <v>4</v>
@@ -2728,17 +2579,14 @@
       <c r="M39" s="1">
         <v>42.857142857142797</v>
       </c>
-      <c r="N39" s="2" t="s">
-        <v>14</v>
+      <c r="N39" t="s">
+        <v>84</v>
       </c>
       <c r="O39" t="s">
-        <v>92</v>
-      </c>
-      <c r="P39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>47</v>
       </c>
@@ -2752,7 +2600,7 @@
         <v>94.230769230769198</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
@@ -2770,7 +2618,7 @@
         <v>89.473684210526301</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L40" s="1">
         <v>1</v>
@@ -2778,17 +2626,14 @@
       <c r="M40" s="1">
         <v>50</v>
       </c>
-      <c r="N40" s="2" t="s">
-        <v>15</v>
+      <c r="N40" t="s">
+        <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
-      </c>
-      <c r="P40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>48</v>
       </c>
@@ -2802,7 +2647,7 @@
         <v>91.6666666666666</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1">
         <v>2</v>
@@ -2820,7 +2665,7 @@
         <v>94.117647058823493</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L41" s="1">
         <v>1</v>
@@ -2828,17 +2673,14 @@
       <c r="M41" s="1">
         <v>50</v>
       </c>
-      <c r="N41" s="2" t="s">
-        <v>10</v>
+      <c r="N41" t="s">
+        <v>86</v>
       </c>
       <c r="O41" t="s">
-        <v>94</v>
-      </c>
-      <c r="P41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>49</v>
       </c>
@@ -2852,7 +2694,7 @@
         <v>91.460674157303302</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1">
         <v>16</v>
@@ -2870,7 +2712,7 @@
         <v>95.476190476190396</v>
       </c>
       <c r="K42" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L42" s="1">
         <v>8</v>
@@ -2878,17 +2720,14 @@
       <c r="M42" s="1">
         <v>57.894736842105203</v>
       </c>
-      <c r="N42" s="2" t="s">
-        <v>10</v>
+      <c r="N42" t="s">
+        <v>88</v>
       </c>
       <c r="O42" t="s">
-        <v>96</v>
-      </c>
-      <c r="P42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>50</v>
       </c>
@@ -2902,7 +2741,7 @@
         <v>94.252873563218301</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F43" s="1">
         <v>28</v>
@@ -2920,7 +2759,7 @@
         <v>95.780176643768399</v>
       </c>
       <c r="K43" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L43" s="1">
         <v>18</v>
@@ -2928,17 +2767,14 @@
       <c r="M43" s="1">
         <v>58.139534883720899</v>
       </c>
-      <c r="N43" s="2" t="s">
-        <v>10</v>
+      <c r="N43" t="s">
+        <v>89</v>
       </c>
       <c r="O43" t="s">
-        <v>97</v>
-      </c>
-      <c r="P43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>52</v>
       </c>
@@ -2952,7 +2788,7 @@
         <v>96.676217765042907</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F44" s="1">
         <v>27</v>
@@ -2970,7 +2806,7 @@
         <v>97.161066048667394</v>
       </c>
       <c r="K44" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L44" s="1">
         <v>20</v>
@@ -2978,17 +2814,14 @@
       <c r="M44" s="1">
         <v>59.183673469387699</v>
       </c>
-      <c r="N44" s="2" t="s">
-        <v>14</v>
+      <c r="N44" t="s">
+        <v>59</v>
       </c>
       <c r="O44" t="s">
-        <v>67</v>
-      </c>
-      <c r="P44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>55</v>
       </c>
@@ -3002,7 +2835,7 @@
         <v>80.487804878048706</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -3020,7 +2853,7 @@
         <v>82.5</v>
       </c>
       <c r="K45" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L45" s="1">
         <v>5</v>
@@ -3028,17 +2861,14 @@
       <c r="M45" s="1">
         <v>28.571428571428498</v>
       </c>
-      <c r="N45" s="2" t="s">
-        <v>10</v>
+      <c r="N45" t="s">
+        <v>57</v>
       </c>
       <c r="O45" t="s">
-        <v>65</v>
-      </c>
-      <c r="P45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>58</v>
       </c>
@@ -3052,7 +2882,7 @@
         <v>93.197278911564595</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F46" s="1">
         <v>4</v>
@@ -3070,7 +2900,7 @@
         <v>94.890510948905103</v>
       </c>
       <c r="K46" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L46" s="1">
         <v>3</v>
@@ -3078,17 +2908,14 @@
       <c r="M46" s="1">
         <v>57.142857142857103</v>
       </c>
-      <c r="N46" s="2" t="s">
-        <v>9</v>
+      <c r="N46" t="s">
+        <v>90</v>
       </c>
       <c r="O46" t="s">
-        <v>98</v>
-      </c>
-      <c r="P46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>60</v>
       </c>
@@ -3102,7 +2929,7 @@
         <v>92.5</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
@@ -3120,7 +2947,7 @@
         <v>88.118811881188094</v>
       </c>
       <c r="K47" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L47" s="1">
         <v>3</v>
@@ -3128,17 +2955,14 @@
       <c r="M47" s="1">
         <v>75</v>
       </c>
-      <c r="N47" s="2" t="s">
-        <v>10</v>
+      <c r="N47" t="s">
+        <v>91</v>
       </c>
       <c r="O47" t="s">
-        <v>99</v>
-      </c>
-      <c r="P47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>61</v>
       </c>
@@ -3152,7 +2976,7 @@
         <v>93.269230769230703</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F48" s="1">
         <v>5</v>
@@ -3170,7 +2994,7 @@
         <v>75.757575757575694</v>
       </c>
       <c r="K48" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L48" s="1">
         <v>5</v>
@@ -3178,17 +3002,14 @@
       <c r="M48" s="1">
         <v>84.375</v>
       </c>
-      <c r="N48" s="2" t="s">
-        <v>10</v>
+      <c r="N48" t="s">
+        <v>93</v>
       </c>
       <c r="O48" t="s">
-        <v>101</v>
-      </c>
-      <c r="P48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>63</v>
       </c>
@@ -3202,7 +3023,7 @@
         <v>93.564356435643504</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F49" s="1">
         <v>7</v>
@@ -3220,7 +3041,7 @@
         <v>92.622950819672099</v>
       </c>
       <c r="K49" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L49" s="1">
         <v>13</v>
@@ -3228,17 +3049,14 @@
       <c r="M49" s="1">
         <v>27.7777777777777</v>
       </c>
-      <c r="N49" s="2" t="s">
-        <v>14</v>
+      <c r="N49" t="s">
+        <v>95</v>
       </c>
       <c r="O49" t="s">
-        <v>103</v>
-      </c>
-      <c r="P49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>64</v>
       </c>
@@ -3252,7 +3070,7 @@
         <v>99.534883720930196</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
@@ -3270,7 +3088,7 @@
         <v>98.901098901098905</v>
       </c>
       <c r="K50" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L50" s="1">
         <v>1</v>
@@ -3278,14 +3096,11 @@
       <c r="M50" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N50" s="2" t="s">
-        <v>10</v>
+      <c r="N50" t="s">
+        <v>96</v>
       </c>
       <c r="O50" t="s">
-        <v>104</v>
-      </c>
-      <c r="P50" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3300,65 +3115,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FAF50D-4CB5-F141-9883-00A6565A1BC1}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">

--- a/artifacts/InPreSS/assets/results/Defects4J/Lang.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Lang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFD0839-0D5D-0D4B-A4CF-EEFC98C3638F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910F33E9-33A8-C440-8EFC-C350B0ED5325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="14540" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Bug ID</t>
   </si>
@@ -77,256 +77,10 @@
     <t># New unmathched block</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>DSlice Time (Min)</t>
   </si>
   <si>
     <t>InPreSS Time (Min)</t>
-  </si>
-  <si>
-    <t>0.009366666666666667</t>
-  </si>
-  <si>
-    <t>3.3333333333333335E-5</t>
-  </si>
-  <si>
-    <t>0.0038333333333333336</t>
-  </si>
-  <si>
-    <t>6.5E-4</t>
-  </si>
-  <si>
-    <t>0.003766666666666667</t>
-  </si>
-  <si>
-    <t>6.666666666666667E-5</t>
-  </si>
-  <si>
-    <t>0.0011666666666666668</t>
-  </si>
-  <si>
-    <t>0.0012666666666666666</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.018533333333333336</t>
-  </si>
-  <si>
-    <t>0.006033333333333333</t>
-  </si>
-  <si>
-    <t>0.0042833333333333334</t>
-  </si>
-  <si>
-    <t>4.333333333333333E-4</t>
-  </si>
-  <si>
-    <t>0.015366666666666667</t>
-  </si>
-  <si>
-    <t>0.0059499999999999996</t>
-  </si>
-  <si>
-    <t>0.015933333333333334</t>
-  </si>
-  <si>
-    <t>0.005316666666666667</t>
-  </si>
-  <si>
-    <t>0.0013166666666666667</t>
-  </si>
-  <si>
-    <t>0.004016666666666667</t>
-  </si>
-  <si>
-    <t>4.6666666666666666E-4</t>
-  </si>
-  <si>
-    <t>0.0021833333333333336</t>
-  </si>
-  <si>
-    <t>5.0E-5</t>
-  </si>
-  <si>
-    <t>0.002116666666666667</t>
-  </si>
-  <si>
-    <t>8.333333333333333E-5</t>
-  </si>
-  <si>
-    <t>0.004683333333333334</t>
-  </si>
-  <si>
-    <t>3.333333333333333E-4</t>
-  </si>
-  <si>
-    <t>0.0035499999999999998</t>
-  </si>
-  <si>
-    <t>0.02245</t>
-  </si>
-  <si>
-    <t>0.007883333333333332</t>
-  </si>
-  <si>
-    <t>0.004916666666666666</t>
-  </si>
-  <si>
-    <t>2.666666666666667E-4</t>
-  </si>
-  <si>
-    <t>0.005633333333333334</t>
-  </si>
-  <si>
-    <t>1.6666666666666666E-4</t>
-  </si>
-  <si>
-    <t>0.0030666666666666668</t>
-  </si>
-  <si>
-    <t>3.0E-4</t>
-  </si>
-  <si>
-    <t>0.0020166666666666666</t>
-  </si>
-  <si>
-    <t>0.0033333333333333335</t>
-  </si>
-  <si>
-    <t>1.5E-4</t>
-  </si>
-  <si>
-    <t>2.5E-4</t>
-  </si>
-  <si>
-    <t>1.0E-4</t>
-  </si>
-  <si>
-    <t>0.0016666666666666668</t>
-  </si>
-  <si>
-    <t>0.0014333333333333331</t>
-  </si>
-  <si>
-    <t>5.833333333333334E-4</t>
-  </si>
-  <si>
-    <t>3.1666666666666665E-4</t>
-  </si>
-  <si>
-    <t>0.00185</t>
-  </si>
-  <si>
-    <t>1.6666666666666667E-5</t>
-  </si>
-  <si>
-    <t>0.003316666666666667</t>
-  </si>
-  <si>
-    <t>2.3333333333333333E-4</t>
-  </si>
-  <si>
-    <t>0.0032500000000000003</t>
-  </si>
-  <si>
-    <t>1.1666666666666667E-4</t>
-  </si>
-  <si>
-    <t>0.14951666666666666</t>
-  </si>
-  <si>
-    <t>0.0031</t>
-  </si>
-  <si>
-    <t>2.8333333333333335E-4</t>
-  </si>
-  <si>
-    <t>9.0E-4</t>
-  </si>
-  <si>
-    <t>3.8333333333333334E-4</t>
-  </si>
-  <si>
-    <t>1.2573833333333333</t>
-  </si>
-  <si>
-    <t>0.77715</t>
-  </si>
-  <si>
-    <t>0.00265</t>
-  </si>
-  <si>
-    <t>3.6666666666666667E-4</t>
-  </si>
-  <si>
-    <t>0.0042</t>
-  </si>
-  <si>
-    <t>6.666666666666666E-4</t>
-  </si>
-  <si>
-    <t>0.0159</t>
-  </si>
-  <si>
-    <t>0.008633333333333333</t>
-  </si>
-  <si>
-    <t>0.0016833333333333333</t>
-  </si>
-  <si>
-    <t>1.8333333333333334E-4</t>
-  </si>
-  <si>
-    <t>0.0013833333333333334</t>
-  </si>
-  <si>
-    <t>0.006533333333333334</t>
-  </si>
-  <si>
-    <t>4.0E-4</t>
-  </si>
-  <si>
-    <t>0.00555</t>
-  </si>
-  <si>
-    <t>0.0024166666666666664</t>
-  </si>
-  <si>
-    <t>0.0023666666666666667</t>
-  </si>
-  <si>
-    <t>0.009616666666666666</t>
-  </si>
-  <si>
-    <t>0.005433333333333333</t>
   </si>
   <si>
     <t>#Old Chg</t>
@@ -420,10 +174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -730,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -741,7 +497,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="N16" sqref="A1:O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -767,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -785,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -794,10 +550,10 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -813,8 +569,8 @@
       <c r="D2" s="1">
         <v>98.771498771498699</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
+      <c r="E2" s="3">
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>8</v>
@@ -831,8 +587,8 @@
       <c r="J2" s="1">
         <v>96.774193548387103</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="K2" s="3">
+        <v>1</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -840,11 +596,11 @@
       <c r="M2" s="1">
         <v>80</v>
       </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
+      <c r="N2" s="3">
+        <v>9.3666666666666603E-3</v>
+      </c>
+      <c r="O2" s="4">
+        <v>3.3333333333333301E-5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -860,8 +616,8 @@
       <c r="D3" s="1">
         <v>94.680851063829707</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
+      <c r="E3" s="3">
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
@@ -878,8 +634,8 @@
       <c r="J3" s="1">
         <v>93.495934959349597</v>
       </c>
-      <c r="K3" t="s">
-        <v>15</v>
+      <c r="K3" s="3">
+        <v>0</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
@@ -887,11 +643,11 @@
       <c r="M3" s="1">
         <v>75</v>
       </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
+      <c r="N3" s="3">
+        <v>3.8333333333333301E-3</v>
+      </c>
+      <c r="O3" s="4">
+        <v>6.4999999999999997E-4</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -907,8 +663,8 @@
       <c r="D4" s="1">
         <v>82.352941176470495</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
+      <c r="E4" s="3">
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
@@ -925,8 +681,8 @@
       <c r="J4" s="1">
         <v>78.125</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
+      <c r="K4" s="3">
+        <v>0</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -934,11 +690,11 @@
       <c r="M4" s="1">
         <v>42.857142857142797</v>
       </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>30</v>
+      <c r="N4" s="3">
+        <v>3.7666666666666599E-3</v>
+      </c>
+      <c r="O4" s="4">
+        <v>6.6666666666666602E-5</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -954,8 +710,8 @@
       <c r="D5" s="1">
         <v>93.979933110367895</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="E5" s="3">
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -972,8 +728,8 @@
       <c r="J5" s="1">
         <v>93.870082342177497</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
+      <c r="K5" s="3">
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>10</v>
@@ -981,11 +737,11 @@
       <c r="M5" s="1">
         <v>85.074626865671604</v>
       </c>
-      <c r="N5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
+      <c r="N5" s="3">
+        <v>1.16666666666666E-3</v>
+      </c>
+      <c r="O5" s="4">
+        <v>6.6666666666666602E-5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1001,8 +757,8 @@
       <c r="D6" s="1">
         <v>84.768211920529794</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
+      <c r="E6" s="3">
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>12</v>
@@ -1019,8 +775,8 @@
       <c r="J6" s="1">
         <v>93.650793650793602</v>
       </c>
-      <c r="K6" t="s">
-        <v>15</v>
+      <c r="K6" s="3">
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <v>3</v>
@@ -1028,11 +784,11 @@
       <c r="M6" s="1">
         <v>25</v>
       </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" t="s">
-        <v>33</v>
+      <c r="N6" s="3">
+        <v>1.2666666666666601E-3</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1048,8 +804,8 @@
       <c r="D7" s="1">
         <v>99.941916085827501</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
+      <c r="E7" s="3">
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
@@ -1066,8 +822,8 @@
       <c r="J7" s="1">
         <v>99.941912116449103</v>
       </c>
-      <c r="K7" t="s">
-        <v>14</v>
+      <c r="K7" s="3">
+        <v>1</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
@@ -1075,11 +831,11 @@
       <c r="M7" s="1">
         <v>88.235294117647001</v>
       </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>35</v>
+      <c r="N7" s="3">
+        <v>1.8533333333333301E-2</v>
+      </c>
+      <c r="O7" s="3">
+        <v>6.0333333333333298E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1095,8 +851,8 @@
       <c r="D8" s="1">
         <v>94.679891794409301</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
+      <c r="E8" s="3">
+        <v>2</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
@@ -1113,8 +869,8 @@
       <c r="J8" s="1">
         <v>94.652406417112303</v>
       </c>
-      <c r="K8" t="s">
-        <v>15</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>9</v>
@@ -1122,11 +878,11 @@
       <c r="M8" s="1">
         <v>87.142857142857096</v>
       </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
+      <c r="N8" s="3">
+        <v>4.28333333333333E-3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4.3333333333333299E-4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1142,8 +898,8 @@
       <c r="D9" s="1">
         <v>93.979933110367895</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
@@ -1160,8 +916,8 @@
       <c r="J9" s="1">
         <v>93.870082342177497</v>
       </c>
-      <c r="K9" t="s">
-        <v>14</v>
+      <c r="K9" s="3">
+        <v>1</v>
       </c>
       <c r="L9" s="1">
         <v>10</v>
@@ -1169,11 +925,11 @@
       <c r="M9" s="1">
         <v>85.074626865671604</v>
       </c>
-      <c r="N9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
+      <c r="N9" s="3">
+        <v>1.53666666666666E-2</v>
+      </c>
+      <c r="O9" s="3">
+        <v>5.94999999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1189,8 +945,8 @@
       <c r="D10" s="1">
         <v>71.428571428571402</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>3</v>
@@ -1207,8 +963,8 @@
       <c r="J10" s="1">
         <v>60</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
+      <c r="K10" s="3">
+        <v>1</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -1216,11 +972,11 @@
       <c r="M10" s="1">
         <v>83.3333333333333</v>
       </c>
-      <c r="N10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" t="s">
-        <v>41</v>
+      <c r="N10" s="3">
+        <v>1.5933333333333299E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>5.3166666666666597E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1236,8 +992,8 @@
       <c r="D11" s="1">
         <v>84.768211920529794</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
+      <c r="E11" s="3">
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <v>12</v>
@@ -1254,8 +1010,8 @@
       <c r="J11" s="1">
         <v>93.650793650793602</v>
       </c>
-      <c r="K11" t="s">
-        <v>15</v>
+      <c r="K11" s="3">
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <v>3</v>
@@ -1263,11 +1019,11 @@
       <c r="M11" s="1">
         <v>25</v>
       </c>
-      <c r="N11" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" t="s">
-        <v>26</v>
+      <c r="N11" s="3">
+        <v>1.31666666666666E-3</v>
+      </c>
+      <c r="O11" s="4">
+        <v>3.3333333333333301E-5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1283,8 +1039,8 @@
       <c r="D12" s="1">
         <v>99.347826086956502</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
+      <c r="E12" s="3">
+        <v>2</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
@@ -1301,8 +1057,8 @@
       <c r="J12" s="1">
         <v>82.608695652173907</v>
       </c>
-      <c r="K12" t="s">
-        <v>15</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1310,11 +1066,11 @@
       <c r="M12" s="1">
         <v>87.5</v>
       </c>
-      <c r="N12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" t="s">
-        <v>44</v>
+      <c r="N12" s="3">
+        <v>4.0166666666666597E-3</v>
+      </c>
+      <c r="O12" s="4">
+        <v>4.6666666666666601E-4</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1330,8 +1086,8 @@
       <c r="D13" s="1">
         <v>94.262295081967196</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
+      <c r="E13" s="3">
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1348,8 +1104,8 @@
       <c r="J13" s="1">
         <v>96.923076923076906</v>
       </c>
-      <c r="K13" t="s">
-        <v>15</v>
+      <c r="K13" s="3">
+        <v>0</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1357,11 +1113,11 @@
       <c r="M13" s="1">
         <v>50</v>
       </c>
-      <c r="N13" t="s">
-        <v>45</v>
-      </c>
-      <c r="O13" t="s">
-        <v>46</v>
+      <c r="N13" s="3">
+        <v>2.1833333333333301E-3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1377,8 +1133,8 @@
       <c r="D14" s="1">
         <v>90.476190476190396</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
+      <c r="E14" s="3">
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>5</v>
@@ -1395,8 +1151,8 @@
       <c r="J14" s="1">
         <v>98.936170212765902</v>
       </c>
-      <c r="K14" t="s">
-        <v>14</v>
+      <c r="K14" s="3">
+        <v>1</v>
       </c>
       <c r="L14" s="1">
         <v>4</v>
@@ -1404,11 +1160,11 @@
       <c r="M14" s="1">
         <v>55.5555555555555</v>
       </c>
-      <c r="N14" t="s">
-        <v>47</v>
-      </c>
-      <c r="O14" t="s">
-        <v>48</v>
+      <c r="N14" s="3">
+        <v>2.1166666666666599E-3</v>
+      </c>
+      <c r="O14" s="4">
+        <v>8.3333333333333303E-5</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1424,8 +1180,8 @@
       <c r="D15" s="1">
         <v>99.493487698986897</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
+      <c r="E15" s="3">
+        <v>2</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1442,8 +1198,8 @@
       <c r="J15" s="1">
         <v>96.194503171247305</v>
       </c>
-      <c r="K15" t="s">
-        <v>16</v>
+      <c r="K15" s="3">
+        <v>2</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
@@ -1451,11 +1207,11 @@
       <c r="M15" s="1">
         <v>94.4444444444444</v>
       </c>
-      <c r="N15" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" t="s">
-        <v>50</v>
+      <c r="N15" s="3">
+        <v>4.6833333333333301E-3</v>
+      </c>
+      <c r="O15" s="4">
+        <v>3.33333333333333E-4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1471,8 +1227,8 @@
       <c r="D16" s="1">
         <v>99.921691464369601</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
+      <c r="E16" s="3">
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1489,8 +1245,8 @@
       <c r="J16" s="1">
         <v>99.921706791935804</v>
       </c>
-      <c r="K16" t="s">
-        <v>14</v>
+      <c r="K16" s="3">
+        <v>1</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
@@ -1498,11 +1254,11 @@
       <c r="M16" s="1">
         <v>50</v>
       </c>
-      <c r="N16" t="s">
-        <v>51</v>
-      </c>
-      <c r="O16" t="s">
-        <v>46</v>
+      <c r="N16" s="3">
+        <v>3.5499999999999898E-3</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1518,8 +1274,8 @@
       <c r="D17" s="1">
         <v>99.251653324051503</v>
       </c>
-      <c r="E17" t="s">
-        <v>17</v>
+      <c r="E17" s="3">
+        <v>5</v>
       </c>
       <c r="F17" s="1">
         <v>18</v>
@@ -1536,8 +1292,8 @@
       <c r="J17" s="1">
         <v>99.356669820245898</v>
       </c>
-      <c r="K17" t="s">
-        <v>22</v>
+      <c r="K17" s="3">
+        <v>3</v>
       </c>
       <c r="L17" s="1">
         <v>12</v>
@@ -1545,11 +1301,11 @@
       <c r="M17" s="1">
         <v>64.705882352941103</v>
       </c>
-      <c r="N17" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" t="s">
-        <v>53</v>
+      <c r="N17" s="3">
+        <v>2.2450000000000001E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>7.8833333333333307E-3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1565,8 +1321,8 @@
       <c r="D18" s="1">
         <v>89.520426287744201</v>
       </c>
-      <c r="E18" t="s">
-        <v>14</v>
+      <c r="E18" s="3">
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <v>9</v>
@@ -1583,8 +1339,8 @@
       <c r="J18" s="1">
         <v>97.654584221748394</v>
       </c>
-      <c r="K18" t="s">
-        <v>14</v>
+      <c r="K18" s="3">
+        <v>1</v>
       </c>
       <c r="L18" s="1">
         <v>8</v>
@@ -1592,11 +1348,11 @@
       <c r="M18" s="1">
         <v>27.272727272727199</v>
       </c>
-      <c r="N18" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" t="s">
-        <v>55</v>
+      <c r="N18" s="3">
+        <v>4.9166666666666603E-3</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2.6666666666666597E-4</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1612,8 +1368,8 @@
       <c r="D19" s="1">
         <v>89.520426287744201</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
+      <c r="E19" s="3">
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>9</v>
@@ -1630,8 +1386,8 @@
       <c r="J19" s="1">
         <v>97.654584221748394</v>
       </c>
-      <c r="K19" t="s">
-        <v>14</v>
+      <c r="K19" s="3">
+        <v>1</v>
       </c>
       <c r="L19" s="1">
         <v>8</v>
@@ -1639,11 +1395,11 @@
       <c r="M19" s="1">
         <v>27.272727272727199</v>
       </c>
-      <c r="N19" t="s">
-        <v>56</v>
-      </c>
-      <c r="O19" t="s">
-        <v>57</v>
+      <c r="N19" s="3">
+        <v>5.6333333333333296E-3</v>
+      </c>
+      <c r="O19" s="4">
+        <v>1.6666666666666601E-4</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1659,8 +1415,8 @@
       <c r="D20" s="1">
         <v>96.296296296296205</v>
       </c>
-      <c r="E20" t="s">
-        <v>15</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>2</v>
@@ -1677,8 +1433,8 @@
       <c r="J20" s="1">
         <v>95.774647887323894</v>
       </c>
-      <c r="K20" t="s">
-        <v>15</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="1">
         <v>2</v>
@@ -1686,11 +1442,11 @@
       <c r="M20" s="1">
         <v>33.3333333333333</v>
       </c>
-      <c r="N20" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" t="s">
-        <v>32</v>
+      <c r="N20" s="3">
+        <v>3.0666666666666598E-3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1.2666666666666601E-3</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1706,8 +1462,8 @@
       <c r="D21" s="1">
         <v>93.035479632063002</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
+      <c r="E21" s="3">
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
@@ -1724,8 +1480,8 @@
       <c r="J21" s="1">
         <v>98.367952522255194</v>
       </c>
-      <c r="K21" t="s">
-        <v>14</v>
+      <c r="K21" s="3">
+        <v>1</v>
       </c>
       <c r="L21" s="1">
         <v>4</v>
@@ -1733,11 +1489,11 @@
       <c r="M21" s="1">
         <v>63.636363636363598</v>
       </c>
-      <c r="N21" t="s">
-        <v>39</v>
-      </c>
-      <c r="O21" t="s">
-        <v>59</v>
+      <c r="N21" s="3">
+        <v>5.94999999999999E-3</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1753,8 +1509,8 @@
       <c r="D22" s="1">
         <v>99.315068493150605</v>
       </c>
-      <c r="E22" t="s">
-        <v>14</v>
+      <c r="E22" s="3">
+        <v>1</v>
       </c>
       <c r="F22" s="1">
         <v>17</v>
@@ -1771,8 +1527,8 @@
       <c r="J22" s="1">
         <v>99.181818181818102</v>
       </c>
-      <c r="K22" t="s">
-        <v>14</v>
+      <c r="K22" s="3">
+        <v>1</v>
       </c>
       <c r="L22" s="1">
         <v>2</v>
@@ -1780,11 +1536,11 @@
       <c r="M22" s="1">
         <v>88.8888888888888</v>
       </c>
-      <c r="N22" t="s">
-        <v>60</v>
-      </c>
-      <c r="O22" t="s">
-        <v>46</v>
+      <c r="N22" s="3">
+        <v>2.0166666666666601E-3</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1800,8 +1556,8 @@
       <c r="D23" s="1">
         <v>99.939357186173396</v>
       </c>
-      <c r="E23" t="s">
-        <v>14</v>
+      <c r="E23" s="3">
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
@@ -1818,8 +1574,8 @@
       <c r="J23" s="1">
         <v>99.939338792841895</v>
       </c>
-      <c r="K23" t="s">
-        <v>14</v>
+      <c r="K23" s="3">
+        <v>1</v>
       </c>
       <c r="L23" s="1">
         <v>2</v>
@@ -1827,11 +1583,11 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" t="s">
-        <v>61</v>
-      </c>
-      <c r="O23" t="s">
-        <v>62</v>
+      <c r="N23" s="3">
+        <v>3.3333333333333301E-3</v>
+      </c>
+      <c r="O23" s="4">
+        <v>1.4999999999999999E-4</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1847,8 +1603,8 @@
       <c r="D24" s="1">
         <v>93.953488372093005</v>
       </c>
-      <c r="E24" t="s">
-        <v>14</v>
+      <c r="E24" s="3">
+        <v>1</v>
       </c>
       <c r="F24" s="1">
         <v>2</v>
@@ -1865,8 +1621,8 @@
       <c r="J24" s="1">
         <v>93.958171959721099</v>
       </c>
-      <c r="K24" t="s">
-        <v>14</v>
+      <c r="K24" s="3">
+        <v>1</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
@@ -1874,11 +1630,11 @@
       <c r="M24" s="1">
         <v>96.153846153846104</v>
       </c>
-      <c r="N24" t="s">
-        <v>63</v>
-      </c>
-      <c r="O24" t="s">
-        <v>64</v>
+      <c r="N24" s="4">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="O24" s="4">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1894,8 +1650,8 @@
       <c r="D25" s="1">
         <v>98.688524590163894</v>
       </c>
-      <c r="E25" t="s">
-        <v>14</v>
+      <c r="E25" s="3">
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>4</v>
@@ -1912,8 +1668,8 @@
       <c r="J25" s="1">
         <v>98.684210526315695</v>
       </c>
-      <c r="K25" t="s">
-        <v>14</v>
+      <c r="K25" s="3">
+        <v>1</v>
       </c>
       <c r="L25" s="1">
         <v>4</v>
@@ -1921,11 +1677,11 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" t="s">
-        <v>65</v>
-      </c>
-      <c r="O25" t="s">
-        <v>66</v>
+      <c r="N25" s="3">
+        <v>1.6666666666666601E-3</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1.4333333333333301E-3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1941,8 +1697,8 @@
       <c r="D26" s="1">
         <v>95.953757225433506</v>
       </c>
-      <c r="E26" t="s">
-        <v>14</v>
+      <c r="E26" s="3">
+        <v>1</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
@@ -1959,8 +1715,8 @@
       <c r="J26" s="1">
         <v>98.360655737704903</v>
       </c>
-      <c r="K26" t="s">
-        <v>14</v>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -1968,11 +1724,11 @@
       <c r="M26" s="1">
         <v>50</v>
       </c>
-      <c r="N26" t="s">
-        <v>67</v>
-      </c>
-      <c r="O26" t="s">
-        <v>68</v>
+      <c r="N26" s="4">
+        <v>5.8333333333333295E-4</v>
+      </c>
+      <c r="O26" s="4">
+        <v>3.16666666666666E-4</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1988,8 +1744,8 @@
       <c r="D27" s="1">
         <v>84.745762711864401</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
+      <c r="E27" s="3">
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>7</v>
@@ -2006,8 +1762,8 @@
       <c r="J27" s="1">
         <v>93.023255813953398</v>
       </c>
-      <c r="K27" t="s">
-        <v>15</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="1">
         <v>2</v>
@@ -2015,11 +1771,11 @@
       <c r="M27" s="1">
         <v>33.3333333333333</v>
       </c>
-      <c r="N27" t="s">
-        <v>69</v>
-      </c>
-      <c r="O27" t="s">
-        <v>70</v>
+      <c r="N27" s="3">
+        <v>1.8500000000000001E-3</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1.66666666666666E-5</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2035,8 +1791,8 @@
       <c r="D28" s="1">
         <v>89.102564102564102</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
+      <c r="E28" s="3">
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>6</v>
@@ -2053,8 +1809,8 @@
       <c r="J28" s="1">
         <v>96.341463414634106</v>
       </c>
-      <c r="K28" t="s">
-        <v>14</v>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" s="1">
         <v>2</v>
@@ -2062,11 +1818,11 @@
       <c r="M28" s="1">
         <v>33.3333333333333</v>
       </c>
-      <c r="N28" t="s">
-        <v>60</v>
-      </c>
-      <c r="O28" t="s">
-        <v>48</v>
+      <c r="N28" s="3">
+        <v>2.0166666666666601E-3</v>
+      </c>
+      <c r="O28" s="4">
+        <v>8.3333333333333303E-5</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2082,8 +1838,8 @@
       <c r="D29" s="1">
         <v>99.873496331393596</v>
       </c>
-      <c r="E29" t="s">
-        <v>15</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="1">
         <v>34</v>
@@ -2100,8 +1856,8 @@
       <c r="J29" s="1">
         <v>86.478873239436595</v>
       </c>
-      <c r="K29" t="s">
-        <v>15</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="1">
         <v>24</v>
@@ -2109,11 +1865,11 @@
       <c r="M29" s="1">
         <v>50</v>
       </c>
-      <c r="N29" t="s">
-        <v>26</v>
-      </c>
-      <c r="O29" t="s">
-        <v>33</v>
+      <c r="N29" s="4">
+        <v>3.3333333333333301E-5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2129,8 +1885,8 @@
       <c r="D30" s="1">
         <v>96.664235264815204</v>
       </c>
-      <c r="E30" t="s">
-        <v>14</v>
+      <c r="E30" s="3">
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>234</v>
@@ -2147,8 +1903,8 @@
       <c r="J30" s="1">
         <v>99.061354006346306</v>
       </c>
-      <c r="K30" t="s">
-        <v>15</v>
+      <c r="K30" s="3">
+        <v>0</v>
       </c>
       <c r="L30" s="1">
         <v>6</v>
@@ -2156,11 +1912,11 @@
       <c r="M30" s="1">
         <v>98.7854251012145</v>
       </c>
-      <c r="N30" t="s">
-        <v>71</v>
-      </c>
-      <c r="O30" t="s">
-        <v>72</v>
+      <c r="N30" s="3">
+        <v>3.31666666666666E-3</v>
+      </c>
+      <c r="O30" s="4">
+        <v>2.3333333333333301E-4</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2176,8 +1932,8 @@
       <c r="D31" s="1">
         <v>97.039473684210506</v>
       </c>
-      <c r="E31" t="s">
-        <v>14</v>
+      <c r="E31" s="3">
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <v>4</v>
@@ -2194,8 +1950,8 @@
       <c r="J31" s="1">
         <v>96.323529411764696</v>
       </c>
-      <c r="K31" t="s">
-        <v>15</v>
+      <c r="K31" s="3">
+        <v>0</v>
       </c>
       <c r="L31" s="1">
         <v>1</v>
@@ -2203,11 +1959,11 @@
       <c r="M31" s="1">
         <v>80</v>
       </c>
-      <c r="N31" t="s">
-        <v>73</v>
-      </c>
-      <c r="O31" t="s">
-        <v>74</v>
+      <c r="N31" s="3">
+        <v>3.2499999999999999E-3</v>
+      </c>
+      <c r="O31" s="4">
+        <v>1.16666666666666E-4</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2223,8 +1979,8 @@
       <c r="D32" s="1">
         <v>90.909090909090907</v>
       </c>
-      <c r="E32" t="s">
-        <v>18</v>
+      <c r="E32" s="3">
+        <v>12</v>
       </c>
       <c r="F32" s="1">
         <v>4</v>
@@ -2241,8 +1997,8 @@
       <c r="J32" s="1">
         <v>91.891891891891902</v>
       </c>
-      <c r="K32" t="s">
-        <v>18</v>
+      <c r="K32" s="3">
+        <v>12</v>
       </c>
       <c r="L32" s="1">
         <v>3</v>
@@ -2250,11 +2006,11 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" t="s">
-        <v>75</v>
-      </c>
-      <c r="O32" t="s">
-        <v>50</v>
+      <c r="N32" s="3">
+        <v>0.14951666666666599</v>
+      </c>
+      <c r="O32" s="4">
+        <v>3.33333333333333E-4</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2270,8 +2026,8 @@
       <c r="D33" s="1">
         <v>99.626865671641795</v>
       </c>
-      <c r="E33" t="s">
-        <v>14</v>
+      <c r="E33" s="3">
+        <v>1</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -2288,8 +2044,8 @@
       <c r="J33" s="1">
         <v>99.625935162094706</v>
       </c>
-      <c r="K33" t="s">
-        <v>14</v>
+      <c r="K33" s="3">
+        <v>1</v>
       </c>
       <c r="L33" s="1">
         <v>1</v>
@@ -2297,11 +2053,11 @@
       <c r="M33" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N33" t="s">
-        <v>30</v>
-      </c>
-      <c r="O33" t="s">
-        <v>64</v>
+      <c r="N33" s="4">
+        <v>6.6666666666666602E-5</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1E-4</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2317,8 +2073,8 @@
       <c r="D34" s="1">
         <v>89.071038251366105</v>
       </c>
-      <c r="E34" t="s">
-        <v>15</v>
+      <c r="E34" s="3">
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>19</v>
@@ -2335,8 +2091,8 @@
       <c r="J34" s="1">
         <v>88.3333333333333</v>
       </c>
-      <c r="K34" t="s">
-        <v>14</v>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" s="1">
         <v>3</v>
@@ -2344,11 +2100,11 @@
       <c r="M34" s="1">
         <v>57.142857142857103</v>
       </c>
-      <c r="N34" t="s">
-        <v>76</v>
-      </c>
-      <c r="O34" t="s">
-        <v>48</v>
+      <c r="N34" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="O34" s="4">
+        <v>8.3333333333333303E-5</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2364,8 +2120,8 @@
       <c r="D35" s="1">
         <v>97.830018083182594</v>
       </c>
-      <c r="E35" t="s">
-        <v>14</v>
+      <c r="E35" s="3">
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>9</v>
@@ -2382,8 +2138,8 @@
       <c r="J35" s="1">
         <v>95.890410958904098</v>
       </c>
-      <c r="K35" t="s">
-        <v>14</v>
+      <c r="K35" s="3">
+        <v>1</v>
       </c>
       <c r="L35" s="1">
         <v>2</v>
@@ -2391,11 +2147,11 @@
       <c r="M35" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N35" t="s">
-        <v>77</v>
-      </c>
-      <c r="O35" t="s">
-        <v>74</v>
+      <c r="N35" s="4">
+        <v>2.8333333333333297E-4</v>
+      </c>
+      <c r="O35" s="4">
+        <v>1.16666666666666E-4</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2411,8 +2167,8 @@
       <c r="D36" s="1">
         <v>99.976875048176893</v>
       </c>
-      <c r="E36" t="s">
-        <v>15</v>
+      <c r="E36" s="3">
+        <v>0</v>
       </c>
       <c r="F36" s="1">
         <v>2</v>
@@ -2429,8 +2185,8 @@
       <c r="J36" s="1">
         <v>99.976949673453703</v>
       </c>
-      <c r="K36" t="s">
-        <v>15</v>
+      <c r="K36" s="3">
+        <v>0</v>
       </c>
       <c r="L36" s="1">
         <v>2</v>
@@ -2438,11 +2194,11 @@
       <c r="M36" s="1">
         <v>33.3333333333333</v>
       </c>
-      <c r="N36" t="s">
-        <v>78</v>
-      </c>
-      <c r="O36" t="s">
-        <v>79</v>
+      <c r="N36" s="4">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="O36" s="4">
+        <v>3.8333333333333302E-4</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2458,8 +2214,8 @@
       <c r="D37" s="1">
         <v>77.7777777777777</v>
       </c>
-      <c r="E37" t="s">
-        <v>19</v>
+      <c r="E37" s="3">
+        <v>68</v>
       </c>
       <c r="F37" s="1">
         <v>2</v>
@@ -2476,8 +2232,8 @@
       <c r="J37" s="1">
         <v>19.230769230769202</v>
       </c>
-      <c r="K37" t="s">
-        <v>16</v>
+      <c r="K37" s="3">
+        <v>2</v>
       </c>
       <c r="L37" s="1">
         <v>1</v>
@@ -2485,11 +2241,11 @@
       <c r="M37" s="1">
         <v>95.238095238095198</v>
       </c>
-      <c r="N37" t="s">
-        <v>80</v>
-      </c>
-      <c r="O37" t="s">
-        <v>81</v>
+      <c r="N37" s="3">
+        <v>1.25738333333333</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.77715000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2505,8 +2261,8 @@
       <c r="D38" s="1">
         <v>98.842592592592595</v>
       </c>
-      <c r="E38" t="s">
-        <v>14</v>
+      <c r="E38" s="3">
+        <v>1</v>
       </c>
       <c r="F38" s="1">
         <v>2</v>
@@ -2523,8 +2279,8 @@
       <c r="J38" s="1">
         <v>98.625429553264595</v>
       </c>
-      <c r="K38" t="s">
-        <v>16</v>
+      <c r="K38" s="3">
+        <v>2</v>
       </c>
       <c r="L38" s="1">
         <v>1</v>
@@ -2532,11 +2288,11 @@
       <c r="M38" s="1">
         <v>75</v>
       </c>
-      <c r="N38" t="s">
-        <v>82</v>
-      </c>
-      <c r="O38" t="s">
-        <v>83</v>
+      <c r="N38" s="3">
+        <v>2.65E-3</v>
+      </c>
+      <c r="O38" s="4">
+        <v>3.6666666666666602E-4</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2552,8 +2308,8 @@
       <c r="D39" s="1">
         <v>97.244094488188907</v>
       </c>
-      <c r="E39" t="s">
-        <v>14</v>
+      <c r="E39" s="3">
+        <v>1</v>
       </c>
       <c r="F39" s="1">
         <v>4</v>
@@ -2570,8 +2326,8 @@
       <c r="J39" s="1">
         <v>97.2332015810276</v>
       </c>
-      <c r="K39" t="s">
-        <v>14</v>
+      <c r="K39" s="3">
+        <v>1</v>
       </c>
       <c r="L39" s="1">
         <v>4</v>
@@ -2579,11 +2335,11 @@
       <c r="M39" s="1">
         <v>42.857142857142797</v>
       </c>
-      <c r="N39" t="s">
-        <v>84</v>
-      </c>
-      <c r="O39" t="s">
-        <v>30</v>
+      <c r="N39" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="O39" s="4">
+        <v>6.6666666666666602E-5</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2599,8 +2355,8 @@
       <c r="D40" s="1">
         <v>94.230769230769198</v>
       </c>
-      <c r="E40" t="s">
-        <v>16</v>
+      <c r="E40" s="3">
+        <v>2</v>
       </c>
       <c r="F40" s="1">
         <v>2</v>
@@ -2617,8 +2373,8 @@
       <c r="J40" s="1">
         <v>89.473684210526301</v>
       </c>
-      <c r="K40" t="s">
-        <v>14</v>
+      <c r="K40" s="3">
+        <v>1</v>
       </c>
       <c r="L40" s="1">
         <v>1</v>
@@ -2626,11 +2382,11 @@
       <c r="M40" s="1">
         <v>50</v>
       </c>
-      <c r="N40" t="s">
-        <v>37</v>
-      </c>
-      <c r="O40" t="s">
-        <v>85</v>
+      <c r="N40" s="4">
+        <v>4.3333333333333299E-4</v>
+      </c>
+      <c r="O40" s="4">
+        <v>6.6666666666666599E-4</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -2646,8 +2402,8 @@
       <c r="D41" s="1">
         <v>91.6666666666666</v>
       </c>
-      <c r="E41" t="s">
-        <v>15</v>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="1">
         <v>2</v>
@@ -2664,8 +2420,8 @@
       <c r="J41" s="1">
         <v>94.117647058823493</v>
       </c>
-      <c r="K41" t="s">
-        <v>15</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="1">
         <v>1</v>
@@ -2673,11 +2429,11 @@
       <c r="M41" s="1">
         <v>50</v>
       </c>
-      <c r="N41" t="s">
-        <v>86</v>
-      </c>
-      <c r="O41" t="s">
-        <v>87</v>
+      <c r="N41" s="3">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="O41" s="3">
+        <v>8.6333333333333297E-3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2693,8 +2449,8 @@
       <c r="D42" s="1">
         <v>91.460674157303302</v>
       </c>
-      <c r="E42" t="s">
-        <v>14</v>
+      <c r="E42" s="3">
+        <v>1</v>
       </c>
       <c r="F42" s="1">
         <v>16</v>
@@ -2711,8 +2467,8 @@
       <c r="J42" s="1">
         <v>95.476190476190396</v>
       </c>
-      <c r="K42" t="s">
-        <v>15</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="1">
         <v>8</v>
@@ -2720,11 +2476,11 @@
       <c r="M42" s="1">
         <v>57.894736842105203</v>
       </c>
-      <c r="N42" t="s">
-        <v>88</v>
-      </c>
-      <c r="O42" t="s">
-        <v>26</v>
+      <c r="N42" s="3">
+        <v>1.6833333333333301E-3</v>
+      </c>
+      <c r="O42" s="4">
+        <v>3.3333333333333301E-5</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2740,8 +2496,8 @@
       <c r="D43" s="1">
         <v>94.252873563218301</v>
       </c>
-      <c r="E43" t="s">
-        <v>14</v>
+      <c r="E43" s="3">
+        <v>1</v>
       </c>
       <c r="F43" s="1">
         <v>28</v>
@@ -2758,8 +2514,8 @@
       <c r="J43" s="1">
         <v>95.780176643768399</v>
       </c>
-      <c r="K43" t="s">
-        <v>15</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="1">
         <v>18</v>
@@ -2767,11 +2523,11 @@
       <c r="M43" s="1">
         <v>58.139534883720899</v>
       </c>
-      <c r="N43" t="s">
-        <v>89</v>
-      </c>
-      <c r="O43" t="s">
-        <v>48</v>
+      <c r="N43" s="4">
+        <v>1.8333333333333301E-4</v>
+      </c>
+      <c r="O43" s="4">
+        <v>8.3333333333333303E-5</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -2787,8 +2543,8 @@
       <c r="D44" s="1">
         <v>96.676217765042907</v>
       </c>
-      <c r="E44" t="s">
-        <v>16</v>
+      <c r="E44" s="3">
+        <v>2</v>
       </c>
       <c r="F44" s="1">
         <v>27</v>
@@ -2805,8 +2561,8 @@
       <c r="J44" s="1">
         <v>97.161066048667394</v>
       </c>
-      <c r="K44" t="s">
-        <v>16</v>
+      <c r="K44" s="3">
+        <v>2</v>
       </c>
       <c r="L44" s="1">
         <v>20</v>
@@ -2814,11 +2570,11 @@
       <c r="M44" s="1">
         <v>59.183673469387699</v>
       </c>
-      <c r="N44" t="s">
-        <v>59</v>
-      </c>
-      <c r="O44" t="s">
-        <v>62</v>
+      <c r="N44" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O44" s="4">
+        <v>1.4999999999999999E-4</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2834,8 +2590,8 @@
       <c r="D45" s="1">
         <v>80.487804878048706</v>
       </c>
-      <c r="E45" t="s">
-        <v>14</v>
+      <c r="E45" s="3">
+        <v>1</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
@@ -2852,8 +2608,8 @@
       <c r="J45" s="1">
         <v>82.5</v>
       </c>
-      <c r="K45" t="s">
-        <v>15</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="1">
         <v>5</v>
@@ -2861,11 +2617,11 @@
       <c r="M45" s="1">
         <v>28.571428571428498</v>
       </c>
-      <c r="N45" t="s">
-        <v>57</v>
-      </c>
-      <c r="O45" t="s">
-        <v>48</v>
+      <c r="N45" s="4">
+        <v>1.6666666666666601E-4</v>
+      </c>
+      <c r="O45" s="4">
+        <v>8.3333333333333303E-5</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -2881,8 +2637,8 @@
       <c r="D46" s="1">
         <v>93.197278911564595</v>
       </c>
-      <c r="E46" t="s">
-        <v>14</v>
+      <c r="E46" s="3">
+        <v>1</v>
       </c>
       <c r="F46" s="1">
         <v>4</v>
@@ -2899,8 +2655,8 @@
       <c r="J46" s="1">
         <v>94.890510948905103</v>
       </c>
-      <c r="K46" t="s">
-        <v>15</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="1">
         <v>3</v>
@@ -2908,11 +2664,11 @@
       <c r="M46" s="1">
         <v>57.142857142857103</v>
       </c>
-      <c r="N46" t="s">
-        <v>90</v>
-      </c>
-      <c r="O46" t="s">
-        <v>26</v>
+      <c r="N46" s="3">
+        <v>1.38333333333333E-3</v>
+      </c>
+      <c r="O46" s="4">
+        <v>3.3333333333333301E-5</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -2928,8 +2684,8 @@
       <c r="D47" s="1">
         <v>92.5</v>
       </c>
-      <c r="E47" t="s">
-        <v>20</v>
+      <c r="E47" s="3">
+        <v>4</v>
       </c>
       <c r="F47" s="1">
         <v>2</v>
@@ -2946,8 +2702,8 @@
       <c r="J47" s="1">
         <v>88.118811881188094</v>
       </c>
-      <c r="K47" t="s">
-        <v>15</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="1">
         <v>3</v>
@@ -2955,11 +2711,11 @@
       <c r="M47" s="1">
         <v>75</v>
       </c>
-      <c r="N47" t="s">
-        <v>91</v>
-      </c>
-      <c r="O47" t="s">
-        <v>92</v>
+      <c r="N47" s="3">
+        <v>6.5333333333333302E-3</v>
+      </c>
+      <c r="O47" s="4">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -2975,8 +2731,8 @@
       <c r="D48" s="1">
         <v>93.269230769230703</v>
       </c>
-      <c r="E48" t="s">
-        <v>21</v>
+      <c r="E48" s="3">
+        <v>6</v>
       </c>
       <c r="F48" s="1">
         <v>5</v>
@@ -2993,8 +2749,8 @@
       <c r="J48" s="1">
         <v>75.757575757575694</v>
       </c>
-      <c r="K48" t="s">
-        <v>20</v>
+      <c r="K48" s="3">
+        <v>4</v>
       </c>
       <c r="L48" s="1">
         <v>5</v>
@@ -3002,11 +2758,11 @@
       <c r="M48" s="1">
         <v>84.375</v>
       </c>
-      <c r="N48" t="s">
-        <v>93</v>
-      </c>
-      <c r="O48" t="s">
-        <v>94</v>
+      <c r="N48" s="3">
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="O48" s="3">
+        <v>2.4166666666666599E-3</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -3022,8 +2778,8 @@
       <c r="D49" s="1">
         <v>93.564356435643504</v>
       </c>
-      <c r="E49" t="s">
-        <v>15</v>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="1">
         <v>7</v>
@@ -3040,8 +2796,8 @@
       <c r="J49" s="1">
         <v>92.622950819672099</v>
       </c>
-      <c r="K49" t="s">
-        <v>15</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="1">
         <v>13</v>
@@ -3049,11 +2805,11 @@
       <c r="M49" s="1">
         <v>27.7777777777777</v>
       </c>
-      <c r="N49" t="s">
-        <v>95</v>
-      </c>
-      <c r="O49" t="s">
-        <v>26</v>
+      <c r="N49" s="3">
+        <v>2.3666666666666602E-3</v>
+      </c>
+      <c r="O49" s="4">
+        <v>3.3333333333333301E-5</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -3069,8 +2825,8 @@
       <c r="D50" s="1">
         <v>99.534883720930196</v>
       </c>
-      <c r="E50" t="s">
-        <v>21</v>
+      <c r="E50" s="3">
+        <v>6</v>
       </c>
       <c r="F50" s="1">
         <v>2</v>
@@ -3087,8 +2843,8 @@
       <c r="J50" s="1">
         <v>98.901098901098905</v>
       </c>
-      <c r="K50" t="s">
-        <v>20</v>
+      <c r="K50" s="3">
+        <v>4</v>
       </c>
       <c r="L50" s="1">
         <v>1</v>
@@ -3096,11 +2852,11 @@
       <c r="M50" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N50" t="s">
-        <v>96</v>
-      </c>
-      <c r="O50" t="s">
-        <v>97</v>
+      <c r="N50" s="3">
+        <v>9.6166666666666605E-3</v>
+      </c>
+      <c r="O50" s="3">
+        <v>5.4333333333333299E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3129,49 +2885,49 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="R1" s="2"/>
     </row>
